--- a/data/13/h1_output.xlsx
+++ b/data/13/h1_output.xlsx
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -890,13 +890,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1045,13 +1045,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1083,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1185,13 +1185,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1279,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1390,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1410,7 +1410,7 @@
         <v>43984.08333333334</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -1504,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1650,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1735,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -1761,13 +1761,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1799,13 +1799,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -1875,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -1963,13 +1963,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>43985.04166666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -2296,13 +2296,13 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -2322,7 +2322,7 @@
         <v>43985.25</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -2863,7 +2863,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -2872,7 +2872,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -2989,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -3024,7 +3024,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -3132,13 +3132,13 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3182,13 +3182,13 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -3369,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3623,13 +3623,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3775,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>43987.08333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>43987.25</v>
       </c>
       <c r="B95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
@@ -4044,13 +4044,13 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -4111,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -4164,7 +4164,7 @@
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -4193,13 +4193,13 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4357,13 +4357,13 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="n">
         <v>0</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L104" t="n">
         <v>0</v>
@@ -4383,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
         <v>0</v>
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -4535,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -4573,13 +4573,13 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4611,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116" t="n">
         <v>0</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K116" t="n">
         <v>0</v>
@@ -4830,7 +4830,7 @@
         <v>43988.25</v>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="n">
         <v>0</v>
@@ -4918,13 +4918,13 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>0</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="K120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -5070,7 +5070,7 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>0</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
         <v>0</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
         <v>0</v>
@@ -5155,13 +5155,13 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L125" t="n">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126" t="n">
         <v>0</v>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>0</v>
@@ -5257,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>0</v>
@@ -5269,7 +5269,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>0</v>
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
@@ -5333,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>0</v>
@@ -5380,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -5409,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>0</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -5485,13 +5485,13 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>0</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5517,7 +5517,7 @@
         <v>0</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D135" t="n">
         <v>0</v>
@@ -5532,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -5552,7 +5552,7 @@
         <v>43989.04166666666</v>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -5564,7 +5564,7 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>0</v>
@@ -5602,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
         <v>0</v>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
         <v>0</v>
@@ -5640,7 +5640,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>0</v>
@@ -5652,7 +5652,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138" t="n">
         <v>0</v>
@@ -5707,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140" t="n">
         <v>0</v>
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G141" t="n">
         <v>0</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -5865,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F144" t="n">
         <v>0</v>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -5900,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E145" t="n">
         <v>0</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5973,13 +5973,13 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
@@ -6023,13 +6023,13 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -6061,13 +6061,13 @@
         <v>0</v>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="K150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L150" t="n">
         <v>0</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
         <v>0</v>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L151" t="n">
         <v>0</v>
@@ -6163,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L152" t="n">
         <v>0</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
         <v>0</v>
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
@@ -6295,7 +6295,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -6368,7 +6368,7 @@
         <v>0</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -6388,7 +6388,7 @@
         <v>43990.04166666666</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -6412,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K158" t="n">
         <v>0</v>
@@ -6438,7 +6438,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G159" t="n">
         <v>0</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K159" t="n">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G160" t="n">
         <v>0</v>
@@ -6488,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K160" t="n">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G164" t="n">
         <v>0</v>
@@ -6657,7 +6657,7 @@
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -6695,7 +6695,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>0</v>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="K170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L172" t="n">
         <v>0</v>
@@ -6967,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -7005,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174" t="n">
         <v>0</v>
@@ -7014,7 +7014,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F175" t="n">
         <v>0</v>
@@ -7052,7 +7052,7 @@
         <v>0</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
         <v>0</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
         <v>0</v>
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
@@ -7157,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178" t="n">
         <v>0</v>
@@ -7169,7 +7169,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
         <v>0</v>
@@ -7227,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
         <v>0</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K180" t="n">
         <v>0</v>
@@ -7286,13 +7286,13 @@
         <v>0</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
       <c r="L181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7312,13 +7312,13 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
         <v>0</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>43991.25</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K183" t="n">
         <v>0</v>
@@ -7388,13 +7388,13 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G184" t="n">
         <v>0</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -7502,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
         <v>0</v>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L187" t="n">
         <v>0</v>
@@ -7543,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="n">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
         <v>0</v>
@@ -7625,7 +7625,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
         <v>0</v>
@@ -7645,7 +7645,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D191" t="n">
         <v>0</v>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L191" t="n">
         <v>0</v>
@@ -7683,7 +7683,7 @@
         <v>0</v>
       </c>
       <c r="C192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7733,7 +7733,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="K193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>0</v>
@@ -7777,13 +7777,13 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>0</v>
@@ -7803,7 +7803,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F196" t="n">
         <v>0</v>
@@ -7850,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -7917,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198" t="n">
         <v>0</v>
@@ -7929,7 +7929,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -7955,7 +7955,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L199" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
         <v>0</v>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L200" t="n">
         <v>0</v>
@@ -8101,7 +8101,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -8122,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -8154,13 +8154,13 @@
         <v>0</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -8174,7 +8174,7 @@
         <v>43992.25</v>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="L205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -8253,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
         <v>0</v>
@@ -8262,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G207" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D208" t="n">
         <v>0</v>
@@ -8303,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8341,7 +8341,7 @@
         <v>0</v>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="K209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L209" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="E210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="K210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>0</v>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D211" t="n">
         <v>0</v>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L211" t="n">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
       </c>
       <c r="K212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L212" t="n">
         <v>0</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L213" t="n">
         <v>0</v>
@@ -8569,7 +8569,7 @@
         <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>0</v>
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="E216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F216" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="n">
         <v>0</v>
@@ -8639,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="E218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218" t="n">
         <v>0</v>
@@ -8686,7 +8686,7 @@
         <v>0</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="E219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="K222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L222" t="n">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="C223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D223" t="n">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K223" t="n">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -8920,7 +8920,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K224" t="n">
         <v>0</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G225" t="n">
         <v>0</v>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="L225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -8984,7 +8984,7 @@
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="n">
         <v>0</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K226" t="n">
         <v>0</v>
@@ -9089,7 +9089,7 @@
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
         <v>0</v>
@@ -9104,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -9136,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G230" t="n">
         <v>0</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" t="n">
         <v>0</v>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L231" t="n">
         <v>0</v>
@@ -9203,7 +9203,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
         <v>0</v>
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J232" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L233" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L234" t="n">
         <v>0</v>
@@ -9329,7 +9329,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L235" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
         <v>0</v>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L237" t="n">
         <v>0</v>
@@ -9443,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="G238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>0</v>
@@ -9475,13 +9475,13 @@
         <v>0</v>
       </c>
       <c r="E239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239" t="n">
         <v>0</v>
       </c>
       <c r="G239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9522,10 +9522,10 @@
         <v>0</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J240" t="n">
         <v>0</v>
@@ -9560,10 +9560,10 @@
         <v>0</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J241" t="n">
         <v>0</v>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="E242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F242" t="n">
         <v>0</v>
@@ -9601,7 +9601,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -9627,13 +9627,13 @@
         <v>0</v>
       </c>
       <c r="E243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
         <v>0</v>
       </c>
       <c r="G243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="E244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244" t="n">
         <v>0</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J244" t="n">
         <v>0</v>
@@ -9697,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
         <v>0</v>
@@ -9712,7 +9712,7 @@
         <v>0</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -9756,13 +9756,13 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K246" t="n">
         <v>0</v>
       </c>
       <c r="L246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="C247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>0</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -9846,7 +9846,7 @@
         <v>43994.25</v>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -9864,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -9896,13 +9896,13 @@
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -9934,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="K251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L251" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="K252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L252" t="n">
         <v>0</v>
@@ -10010,7 +10010,7 @@
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
         <v>0</v>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L253" t="n">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L255" t="n">
         <v>0</v>
@@ -10133,13 +10133,13 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L256" t="n">
         <v>0</v>
@@ -10162,7 +10162,7 @@
         <v>0</v>
       </c>
       <c r="F257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G257" t="n">
         <v>0</v>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L257" t="n">
         <v>0</v>
@@ -10203,7 +10203,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>0</v>
@@ -10235,7 +10235,7 @@
         <v>0</v>
       </c>
       <c r="E259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F259" t="n">
         <v>0</v>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="K259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L259" t="n">
         <v>0</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="E260" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" t="n">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F263" t="n">
         <v>0</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>0</v>
       </c>
       <c r="E264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" t="n">
         <v>0</v>
       </c>
       <c r="G264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10463,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
         <v>0</v>
@@ -10475,7 +10475,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J265" t="n">
         <v>0</v>
@@ -10507,13 +10507,13 @@
         <v>0</v>
       </c>
       <c r="G266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="n">
         <v>0</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D267" t="n">
         <v>0</v>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L267" t="n">
         <v>0</v>
@@ -10580,13 +10580,13 @@
         <v>0</v>
       </c>
       <c r="F268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G268" t="n">
         <v>0</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>43995.08333333334</v>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -10618,7 +10618,7 @@
         <v>0</v>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" t="n">
         <v>0</v>
@@ -10656,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G270" t="n">
         <v>0</v>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K270" t="n">
         <v>0</v>
@@ -10732,7 +10732,7 @@
         <v>0</v>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272" t="n">
         <v>0</v>
@@ -10744,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K272" t="n">
         <v>0</v>
@@ -10782,10 +10782,10 @@
         <v>0</v>
       </c>
       <c r="J273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273" t="n">
         <v>0</v>
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="G274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K274" t="n">
         <v>0</v>
@@ -10881,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="E276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F276" t="n">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="G277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10951,13 +10951,13 @@
         <v>0</v>
       </c>
       <c r="C278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D278" t="n">
         <v>0</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F278" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F279" t="n">
         <v>0</v>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>0</v>
@@ -11045,13 +11045,13 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J280" t="n">
         <v>0</v>
       </c>
       <c r="K280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="E281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F281" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="n">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="E282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F282" t="n">
         <v>0</v>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="n">
         <v>0</v>
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="E284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F284" t="n">
         <v>0</v>
@@ -11194,7 +11194,7 @@
         <v>0</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -11223,7 +11223,7 @@
         <v>0</v>
       </c>
       <c r="E285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F285" t="n">
         <v>0</v>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" t="n">
         <v>0</v>
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="n">
         <v>0</v>
@@ -11369,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D289" t="n">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G291" t="n">
         <v>0</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -11483,7 +11483,7 @@
         <v>0</v>
       </c>
       <c r="C292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -11492,7 +11492,7 @@
         <v>0</v>
       </c>
       <c r="F292" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G292" t="n">
         <v>0</v>
@@ -11562,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="D294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
@@ -11571,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="G294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -11597,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="C295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D295" t="n">
         <v>0</v>
@@ -11606,7 +11606,7 @@
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G295" t="n">
         <v>0</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F298" t="n">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>0</v>
       </c>
       <c r="I298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J298" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>0</v>
       </c>
       <c r="E300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F300" t="n">
         <v>0</v>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L300" t="n">
         <v>0</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="E301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F301" t="n">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
       <c r="K301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L301" t="n">
         <v>0</v>
@@ -11881,13 +11881,13 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J302" t="n">
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L302" t="n">
         <v>0</v>
@@ -12021,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="E306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F306" t="n">
         <v>0</v>
@@ -12030,7 +12030,7 @@
         <v>0</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="E307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F307" t="n">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -12205,7 +12205,7 @@
         <v>0</v>
       </c>
       <c r="C311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D311" t="n">
         <v>0</v>
@@ -12214,7 +12214,7 @@
         <v>0</v>
       </c>
       <c r="F311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -12240,7 +12240,7 @@
         <v>43997.04166666666</v>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
         <v>0</v>
@@ -12258,7 +12258,7 @@
         <v>0</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -12290,13 +12290,13 @@
         <v>0</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -12328,13 +12328,13 @@
         <v>0</v>
       </c>
       <c r="F314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -12372,13 +12372,13 @@
         <v>0</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K315" t="n">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D317" t="n">
         <v>0</v>
@@ -12448,7 +12448,7 @@
         <v>0</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D319" t="n">
         <v>0</v>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L319" t="n">
         <v>0</v>
@@ -12559,13 +12559,13 @@
         <v>0</v>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J320" t="n">
         <v>0</v>
@@ -12597,10 +12597,10 @@
         <v>0</v>
       </c>
       <c r="G321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -12638,10 +12638,10 @@
         <v>0</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J322" t="n">
         <v>0</v>
@@ -12667,13 +12667,13 @@
         <v>0</v>
       </c>
       <c r="E323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F323" t="n">
         <v>0</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -12711,13 +12711,13 @@
         <v>0</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J324" t="n">
         <v>0</v>
@@ -12743,13 +12743,13 @@
         <v>0</v>
       </c>
       <c r="E325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F325" t="n">
         <v>0</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="E326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F326" t="n">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="K326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L326" t="n">
         <v>0</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="E327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" t="n">
         <v>0</v>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="K327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L327" t="n">
         <v>0</v>
@@ -12851,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D328" t="n">
         <v>0</v>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="K328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>0</v>
@@ -12889,13 +12889,13 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
       </c>
       <c r="E329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F329" t="n">
         <v>0</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="E331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F331" t="n">
         <v>0</v>
@@ -12983,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="I331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" t="n">
         <v>0</v>
@@ -13041,7 +13041,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -13056,7 +13056,7 @@
         <v>0</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -13076,7 +13076,7 @@
         <v>43998.04166666666</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
         <v>0</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K334" t="n">
         <v>0</v>
@@ -13117,7 +13117,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D335" t="n">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K335" t="n">
         <v>0</v>
@@ -13164,13 +13164,13 @@
         <v>0</v>
       </c>
       <c r="F336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G336" t="n">
         <v>0</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -13190,10 +13190,10 @@
         <v>43998.25</v>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -13231,7 +13231,7 @@
         <v>0</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -13240,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338" t="n">
         <v>0</v>
@@ -13269,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
@@ -13316,10 +13316,10 @@
         <v>0</v>
       </c>
       <c r="F340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H340" t="n">
         <v>0</v>
@@ -13354,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
       <c r="K341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L341" t="n">
         <v>0</v>
@@ -13389,13 +13389,13 @@
         <v>0</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F342" t="n">
         <v>0</v>
       </c>
       <c r="G342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H342" t="n">
         <v>0</v>
@@ -13424,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E343" t="n">
         <v>0</v>
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="K343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L343" t="n">
         <v>0</v>
@@ -13465,13 +13465,13 @@
         <v>0</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F344" t="n">
         <v>0</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H344" t="n">
         <v>0</v>
@@ -13503,13 +13503,13 @@
         <v>0</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H345" t="n">
         <v>0</v>
@@ -13553,13 +13553,13 @@
         <v>0</v>
       </c>
       <c r="I346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346" t="n">
         <v>0</v>
       </c>
       <c r="K346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L346" t="n">
         <v>0</v>
@@ -13579,7 +13579,7 @@
         <v>0</v>
       </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F347" t="n">
         <v>0</v>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
       <c r="K347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L347" t="n">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="E348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F348" t="n">
         <v>0</v>
@@ -13629,7 +13629,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J348" t="n">
         <v>0</v>
@@ -13655,7 +13655,7 @@
         <v>0</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F349" t="n">
         <v>0</v>
@@ -13667,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J349" t="n">
         <v>0</v>
@@ -13687,7 +13687,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J350" t="n">
         <v>0</v>
@@ -13725,13 +13725,13 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D351" t="n">
         <v>0</v>
       </c>
       <c r="E351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F351" t="n">
         <v>0</v>
@@ -13804,10 +13804,10 @@
         <v>0</v>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F353" t="n">
         <v>0</v>
@@ -14000,7 +14000,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G358" t="n">
         <v>0</v>
@@ -14012,7 +14012,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K358" t="n">
         <v>0</v>
@@ -14044,13 +14044,13 @@
         <v>0</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
       </c>
       <c r="J359" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K359" t="n">
         <v>0</v>
@@ -14067,7 +14067,7 @@
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G360" t="n">
         <v>0</v>
@@ -14105,7 +14105,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -14114,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="F361" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G361" t="n">
         <v>0</v>
@@ -14143,7 +14143,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D362" t="n">
         <v>0</v>
@@ -14152,7 +14152,7 @@
         <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G362" t="n">
         <v>0</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G363" t="n">
         <v>0</v>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L363" t="n">
         <v>0</v>
@@ -14219,13 +14219,13 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D364" t="n">
         <v>0</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F364" t="n">
         <v>0</v>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D365" t="n">
         <v>0</v>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="G365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H365" t="n">
         <v>0</v>
@@ -14295,13 +14295,13 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F366" t="n">
         <v>0</v>
@@ -14345,7 +14345,7 @@
         <v>0</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H367" t="n">
         <v>0</v>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L367" t="n">
         <v>0</v>
@@ -14380,10 +14380,10 @@
         <v>0</v>
       </c>
       <c r="F368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H368" t="n">
         <v>0</v>
@@ -14409,13 +14409,13 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D369" t="n">
         <v>0</v>
       </c>
       <c r="E369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F369" t="n">
         <v>0</v>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="E370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="K370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>0</v>
@@ -14523,13 +14523,13 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D372" t="n">
         <v>0</v>
       </c>
       <c r="E372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
@@ -14561,13 +14561,13 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D373" t="n">
         <v>0</v>
       </c>
       <c r="E373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
@@ -14605,7 +14605,7 @@
         <v>0</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
@@ -14617,7 +14617,7 @@
         <v>0</v>
       </c>
       <c r="I374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J374" t="n">
         <v>0</v>
@@ -14681,13 +14681,13 @@
         <v>0</v>
       </c>
       <c r="E376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F376" t="n">
         <v>0</v>
       </c>
       <c r="G376" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H376" t="n">
         <v>0</v>
@@ -14766,13 +14766,13 @@
         <v>0</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
       </c>
       <c r="J378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K378" t="n">
         <v>0</v>
@@ -14842,13 +14842,13 @@
         <v>0</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
       </c>
       <c r="J380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K380" t="n">
         <v>0</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -14892,7 +14892,7 @@
         <v>0</v>
       </c>
       <c r="L381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -14950,13 +14950,13 @@
         <v>0</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G383" t="n">
         <v>0</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" t="n">
         <v>0</v>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="K385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L385" t="n">
         <v>0</v>
@@ -15067,13 +15067,13 @@
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J386" t="n">
         <v>0</v>
@@ -15131,13 +15131,13 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
       </c>
       <c r="E388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F388" t="n">
         <v>0</v>
@@ -15178,7 +15178,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G389" t="n">
         <v>0</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="K389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L389" t="n">
         <v>0</v>
@@ -15216,10 +15216,10 @@
         <v>0</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G390" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H390" t="n">
         <v>0</v>
@@ -15251,10 +15251,10 @@
         <v>0</v>
       </c>
       <c r="E391" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>
@@ -15289,13 +15289,13 @@
         <v>0</v>
       </c>
       <c r="E392" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F392" t="n">
         <v>0</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H392" t="n">
         <v>0</v>
@@ -15333,13 +15333,13 @@
         <v>0</v>
       </c>
       <c r="G393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H393" t="n">
         <v>0</v>
       </c>
       <c r="I393" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J393" t="n">
         <v>0</v>
@@ -15365,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="E394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F394" t="n">
         <v>0</v>
@@ -15374,7 +15374,7 @@
         <v>0</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -15403,7 +15403,7 @@
         <v>0</v>
       </c>
       <c r="E395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F395" t="n">
         <v>0</v>
@@ -15412,7 +15412,7 @@
         <v>0</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -15491,13 +15491,13 @@
         <v>0</v>
       </c>
       <c r="I397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J397" t="n">
         <v>0</v>
       </c>
       <c r="K397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L397" t="n">
         <v>0</v>
@@ -15584,7 +15584,7 @@
         <v>44001.04166666666</v>
       </c>
       <c r="B400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C400" t="n">
         <v>0</v>
@@ -15608,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K400" t="n">
         <v>0</v>
@@ -15672,13 +15672,13 @@
         <v>0</v>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G402" t="n">
         <v>0</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -15739,7 +15739,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -15748,7 +15748,7 @@
         <v>0</v>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G404" t="n">
         <v>0</v>
@@ -15777,7 +15777,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D405" t="n">
         <v>0</v>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="K405" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L405" t="n">
         <v>0</v>
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D406" t="n">
         <v>0</v>
@@ -15827,7 +15827,7 @@
         <v>0</v>
       </c>
       <c r="G406" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H406" t="n">
         <v>0</v>
@@ -15862,10 +15862,10 @@
         <v>0</v>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H407" t="n">
         <v>0</v>
@@ -15903,13 +15903,13 @@
         <v>0</v>
       </c>
       <c r="G408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H408" t="n">
         <v>0</v>
       </c>
       <c r="I408" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J408" t="n">
         <v>0</v>
@@ -15941,13 +15941,13 @@
         <v>0</v>
       </c>
       <c r="G409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H409" t="n">
         <v>0</v>
       </c>
       <c r="I409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J409" t="n">
         <v>0</v>
@@ -15985,13 +15985,13 @@
         <v>0</v>
       </c>
       <c r="I410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J410" t="n">
         <v>0</v>
       </c>
       <c r="K410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L410" t="n">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="E411" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F411" t="n">
         <v>0</v>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="K411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L411" t="n">
         <v>0</v>
@@ -16055,13 +16055,13 @@
         <v>0</v>
       </c>
       <c r="G412" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H412" t="n">
         <v>0</v>
       </c>
       <c r="I412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J412" t="n">
         <v>0</v>
@@ -16087,7 +16087,7 @@
         <v>0</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F413" t="n">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J413" t="n">
         <v>0</v>
@@ -16125,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="E414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F414" t="n">
         <v>0</v>
@@ -16137,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="n">
         <v>0</v>
@@ -16163,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="E415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F415" t="n">
         <v>0</v>
@@ -16175,7 +16175,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J415" t="n">
         <v>0</v>
@@ -16201,7 +16201,7 @@
         <v>0</v>
       </c>
       <c r="E416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F416" t="n">
         <v>0</v>
@@ -16216,7 +16216,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K416" t="n">
         <v>0</v>
@@ -16233,13 +16233,13 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D417" t="n">
         <v>0</v>
       </c>
       <c r="E417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F417" t="n">
         <v>0</v>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
       <c r="E419" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F419" t="n">
         <v>0</v>
@@ -16327,7 +16327,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J419" t="n">
         <v>0</v>
@@ -16391,7 +16391,7 @@
         <v>0</v>
       </c>
       <c r="E421" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F421" t="n">
         <v>0</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -16458,7 +16458,7 @@
         <v>44002.08333333334</v>
       </c>
       <c r="B423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C423" t="n">
         <v>0</v>
@@ -16470,7 +16470,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G423" t="n">
         <v>0</v>
@@ -16508,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
@@ -16526,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="L424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -16584,7 +16584,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G426" t="n">
         <v>0</v>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="K426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L426" t="n">
         <v>0</v>
@@ -16625,7 +16625,7 @@
         <v>0</v>
       </c>
       <c r="G427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H427" t="n">
         <v>0</v>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
       <c r="K427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L427" t="n">
         <v>0</v>
@@ -16660,10 +16660,10 @@
         <v>0</v>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H428" t="n">
         <v>0</v>
@@ -16701,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="G429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H429" t="n">
         <v>0</v>
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="K429" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L429" t="n">
         <v>0</v>
@@ -16777,13 +16777,13 @@
         <v>0</v>
       </c>
       <c r="G431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H431" t="n">
         <v>0</v>
       </c>
       <c r="I431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J431" t="n">
         <v>0</v>
@@ -16809,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="E432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F432" t="n">
         <v>0</v>
@@ -16821,7 +16821,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J432" t="n">
         <v>0</v>
@@ -16859,13 +16859,13 @@
         <v>0</v>
       </c>
       <c r="I433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J433" t="n">
         <v>0</v>
       </c>
       <c r="K433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L433" t="n">
         <v>0</v>
@@ -16891,13 +16891,13 @@
         <v>0</v>
       </c>
       <c r="G434" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H434" t="n">
         <v>0</v>
       </c>
       <c r="I434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J434" t="n">
         <v>0</v>
@@ -16923,7 +16923,7 @@
         <v>0</v>
       </c>
       <c r="E435" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F435" t="n">
         <v>0</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J435" t="n">
         <v>0</v>
@@ -17037,7 +17037,7 @@
         <v>0</v>
       </c>
       <c r="E438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F438" t="n">
         <v>0</v>
@@ -17046,7 +17046,7 @@
         <v>0</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -17075,7 +17075,7 @@
         <v>0</v>
       </c>
       <c r="E439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F439" t="n">
         <v>0</v>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L439" t="n">
         <v>0</v>
@@ -17151,7 +17151,7 @@
         <v>0</v>
       </c>
       <c r="E441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F441" t="n">
         <v>0</v>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J441" t="n">
         <v>0</v>
@@ -17189,13 +17189,13 @@
         <v>0</v>
       </c>
       <c r="E442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F442" t="n">
         <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H442" t="n">
         <v>0</v>
@@ -17221,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D443" t="n">
         <v>0</v>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
       <c r="K443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>0</v>
@@ -17274,13 +17274,13 @@
         <v>0</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
       </c>
       <c r="J444" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K444" t="n">
         <v>0</v>
@@ -17306,13 +17306,13 @@
         <v>0</v>
       </c>
       <c r="F445" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -17394,10 +17394,10 @@
         <v>0</v>
       </c>
       <c r="J447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L447" t="n">
         <v>0</v>
@@ -17420,10 +17420,10 @@
         <v>0</v>
       </c>
       <c r="F448" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H448" t="n">
         <v>0</v>
@@ -17458,13 +17458,13 @@
         <v>0</v>
       </c>
       <c r="F449" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G449" t="n">
         <v>0</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -17496,10 +17496,10 @@
         <v>0</v>
       </c>
       <c r="F450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H450" t="n">
         <v>0</v>
@@ -17531,13 +17531,13 @@
         <v>0</v>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F451" t="n">
         <v>0</v>
       </c>
       <c r="G451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H451" t="n">
         <v>0</v>
@@ -17569,13 +17569,13 @@
         <v>0</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F452" t="n">
         <v>0</v>
       </c>
       <c r="G452" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H452" t="n">
         <v>0</v>
@@ -17613,13 +17613,13 @@
         <v>0</v>
       </c>
       <c r="G453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H453" t="n">
         <v>0</v>
       </c>
       <c r="I453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J453" t="n">
         <v>0</v>
@@ -17645,7 +17645,7 @@
         <v>0</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F454" t="n">
         <v>0</v>
@@ -17657,7 +17657,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J454" t="n">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F455" t="n">
         <v>0</v>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
       <c r="K455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>0</v>
@@ -17733,13 +17733,13 @@
         <v>0</v>
       </c>
       <c r="I456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J456" t="n">
         <v>0</v>
       </c>
       <c r="K456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L456" t="n">
         <v>0</v>
@@ -17759,7 +17759,7 @@
         <v>0</v>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F457" t="n">
         <v>0</v>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
       <c r="K457" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L457" t="n">
         <v>0</v>
@@ -17873,7 +17873,7 @@
         <v>0</v>
       </c>
       <c r="E460" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F460" t="n">
         <v>0</v>
@@ -17882,7 +17882,7 @@
         <v>0</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -17911,7 +17911,7 @@
         <v>0</v>
       </c>
       <c r="E461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F461" t="n">
         <v>0</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -18148,13 +18148,13 @@
         <v>0</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
       </c>
       <c r="J467" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K467" t="n">
         <v>0</v>
@@ -18186,13 +18186,13 @@
         <v>0</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
       </c>
       <c r="J468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K468" t="n">
         <v>0</v>
@@ -18230,13 +18230,13 @@
         <v>0</v>
       </c>
       <c r="J469" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K469" t="n">
         <v>0</v>
       </c>
       <c r="L469" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -18285,7 +18285,7 @@
         <v>0</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D471" t="n">
         <v>0</v>
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="F471" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G471" t="n">
         <v>0</v>
@@ -18361,7 +18361,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L473" t="n">
         <v>0</v>
@@ -18411,7 +18411,7 @@
         <v>0</v>
       </c>
       <c r="G474" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H474" t="n">
         <v>0</v>
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L474" t="n">
         <v>0</v>
@@ -18446,10 +18446,10 @@
         <v>0</v>
       </c>
       <c r="F475" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H475" t="n">
         <v>0</v>
@@ -18475,13 +18475,13 @@
         <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D476" t="n">
         <v>0</v>
       </c>
       <c r="E476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F476" t="n">
         <v>0</v>
@@ -18528,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="K477" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L477" t="n">
         <v>0</v>
@@ -18560,10 +18560,10 @@
         <v>0</v>
       </c>
       <c r="F478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H478" t="n">
         <v>0</v>
@@ -18639,7 +18639,7 @@
         <v>0</v>
       </c>
       <c r="G480" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H480" t="n">
         <v>0</v>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="K480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L480" t="n">
         <v>0</v>
@@ -18671,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F481" t="n">
         <v>0</v>
@@ -18683,7 +18683,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J481" t="n">
         <v>0</v>
@@ -18718,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
       <c r="K482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>0</v>
@@ -18747,7 +18747,7 @@
         <v>0</v>
       </c>
       <c r="E483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F483" t="n">
         <v>0</v>
@@ -18756,7 +18756,7 @@
         <v>0</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -18785,7 +18785,7 @@
         <v>0</v>
       </c>
       <c r="E484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F484" t="n">
         <v>0</v>
@@ -18797,7 +18797,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J484" t="n">
         <v>0</v>
@@ -18867,13 +18867,13 @@
         <v>0</v>
       </c>
       <c r="G486" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H486" t="n">
         <v>0</v>
       </c>
       <c r="I486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J486" t="n">
         <v>0</v>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D487" t="n">
         <v>0</v>
@@ -18908,7 +18908,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I487" t="n">
         <v>0</v>
@@ -18928,7 +18928,7 @@
         <v>44005.04166666666</v>
       </c>
       <c r="B488" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C488" t="n">
         <v>0</v>
@@ -18958,7 +18958,7 @@
         <v>0</v>
       </c>
       <c r="L488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -18966,7 +18966,7 @@
         <v>44005.08333333334</v>
       </c>
       <c r="B489" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C489" t="n">
         <v>0</v>
@@ -18990,7 +18990,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K489" t="n">
         <v>0</v>
@@ -19022,13 +19022,13 @@
         <v>0</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
       </c>
       <c r="J490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K490" t="n">
         <v>0</v>
@@ -19121,7 +19121,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D493" t="n">
         <v>0</v>
@@ -19130,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="F493" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G493" t="n">
         <v>0</v>
@@ -19162,13 +19162,13 @@
         <v>0</v>
       </c>
       <c r="D494" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
       </c>
       <c r="F494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G494" t="n">
         <v>0</v>
@@ -19197,10 +19197,10 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E495" t="n">
         <v>0</v>
@@ -19241,13 +19241,13 @@
         <v>0</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F496" t="n">
         <v>0</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H496" t="n">
         <v>0</v>
@@ -19273,7 +19273,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -19282,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="F497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G497" t="n">
         <v>0</v>
@@ -19329,13 +19329,13 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J498" t="n">
         <v>0</v>
       </c>
       <c r="K498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L498" t="n">
         <v>0</v>
@@ -19399,13 +19399,13 @@
         <v>0</v>
       </c>
       <c r="G500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H500" t="n">
         <v>0</v>
       </c>
       <c r="I500" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J500" t="n">
         <v>0</v>
@@ -19431,13 +19431,13 @@
         <v>0</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F501" t="n">
         <v>0</v>
       </c>
       <c r="G501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H501" t="n">
         <v>0</v>
@@ -19481,13 +19481,13 @@
         <v>0</v>
       </c>
       <c r="I502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J502" t="n">
         <v>0</v>
       </c>
       <c r="K502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L502" t="n">
         <v>0</v>
@@ -19507,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F503" t="n">
         <v>0</v>
@@ -19519,7 +19519,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J503" t="n">
         <v>0</v>
@@ -19554,10 +19554,10 @@
         <v>0</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J504" t="n">
         <v>0</v>
@@ -19583,7 +19583,7 @@
         <v>0</v>
       </c>
       <c r="E505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F505" t="n">
         <v>0</v>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -19621,7 +19621,7 @@
         <v>0</v>
       </c>
       <c r="E506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F506" t="n">
         <v>0</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="K506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>0</v>
@@ -19656,7 +19656,7 @@
         <v>0</v>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
       <c r="K507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>0</v>
@@ -19697,7 +19697,7 @@
         <v>0</v>
       </c>
       <c r="E508" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F508" t="n">
         <v>0</v>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="K508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L508" t="n">
         <v>0</v>
@@ -19852,13 +19852,13 @@
         <v>0</v>
       </c>
       <c r="F512" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G512" t="n">
         <v>0</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="F513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G513" t="n">
         <v>0</v>
@@ -19902,7 +19902,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K513" t="n">
         <v>0</v>
@@ -19957,7 +19957,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D515" t="n">
         <v>0</v>
@@ -19966,7 +19966,7 @@
         <v>0</v>
       </c>
       <c r="F515" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G515" t="n">
         <v>0</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -20042,7 +20042,7 @@
         <v>0</v>
       </c>
       <c r="F517" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G517" t="n">
         <v>0</v>
@@ -20080,10 +20080,10 @@
         <v>0</v>
       </c>
       <c r="F518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G518" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H518" t="n">
         <v>0</v>
@@ -20121,7 +20121,7 @@
         <v>0</v>
       </c>
       <c r="G519" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H519" t="n">
         <v>0</v>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="K519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L519" t="n">
         <v>0</v>
@@ -20165,13 +20165,13 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J520" t="n">
         <v>0</v>
       </c>
       <c r="K520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L520" t="n">
         <v>0</v>
@@ -20191,13 +20191,13 @@
         <v>0</v>
       </c>
       <c r="E521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F521" t="n">
         <v>0</v>
       </c>
       <c r="G521" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H521" t="n">
         <v>0</v>
@@ -20267,13 +20267,13 @@
         <v>0</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F523" t="n">
         <v>0</v>
       </c>
       <c r="G523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H523" t="n">
         <v>0</v>
@@ -20381,7 +20381,7 @@
         <v>0</v>
       </c>
       <c r="E526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F526" t="n">
         <v>0</v>
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -20419,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="E527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F527" t="n">
         <v>0</v>
@@ -20428,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -20457,13 +20457,13 @@
         <v>0</v>
       </c>
       <c r="E528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F528" t="n">
         <v>0</v>
       </c>
       <c r="G528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H528" t="n">
         <v>0</v>
@@ -20495,7 +20495,7 @@
         <v>0</v>
       </c>
       <c r="E529" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F529" t="n">
         <v>0</v>
@@ -20507,7 +20507,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J529" t="n">
         <v>0</v>
@@ -20533,13 +20533,13 @@
         <v>0</v>
       </c>
       <c r="E530" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F530" t="n">
         <v>0</v>
       </c>
       <c r="G530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H530" t="n">
         <v>0</v>
@@ -20641,7 +20641,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -20662,7 +20662,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K533" t="n">
         <v>0</v>
@@ -20679,7 +20679,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
@@ -20700,7 +20700,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K534" t="n">
         <v>0</v>
@@ -20714,7 +20714,7 @@
         <v>44007.25</v>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
         <v>0</v>
@@ -20744,7 +20744,7 @@
         <v>0</v>
       </c>
       <c r="L535" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536">
@@ -20793,7 +20793,7 @@
         <v>0</v>
       </c>
       <c r="C537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D537" t="n">
         <v>0</v>
@@ -20802,7 +20802,7 @@
         <v>0</v>
       </c>
       <c r="F537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G537" t="n">
         <v>0</v>
@@ -20881,7 +20881,7 @@
         <v>0</v>
       </c>
       <c r="G539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H539" t="n">
         <v>0</v>
@@ -20893,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="K539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L539" t="n">
         <v>0</v>
@@ -20913,13 +20913,13 @@
         <v>0</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F540" t="n">
         <v>0</v>
       </c>
       <c r="G540" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H540" t="n">
         <v>0</v>
@@ -20954,10 +20954,10 @@
         <v>0</v>
       </c>
       <c r="F541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G541" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H541" t="n">
         <v>0</v>
@@ -20989,13 +20989,13 @@
         <v>0</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F542" t="n">
         <v>0</v>
       </c>
       <c r="G542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H542" t="n">
         <v>0</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="G543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H543" t="n">
         <v>0</v>
@@ -21045,7 +21045,7 @@
         <v>0</v>
       </c>
       <c r="K543" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L543" t="n">
         <v>0</v>
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="F544" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G544" t="n">
         <v>0</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="K544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>0</v>
@@ -21103,7 +21103,7 @@
         <v>0</v>
       </c>
       <c r="E545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F545" t="n">
         <v>0</v>
@@ -21115,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J545" t="n">
         <v>0</v>
@@ -21141,7 +21141,7 @@
         <v>0</v>
       </c>
       <c r="E546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F546" t="n">
         <v>0</v>
@@ -21153,7 +21153,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J546" t="n">
         <v>0</v>
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="E547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F547" t="n">
         <v>0</v>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J547" t="n">
         <v>0</v>
@@ -21217,7 +21217,7 @@
         <v>0</v>
       </c>
       <c r="E548" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F548" t="n">
         <v>0</v>
@@ -21226,7 +21226,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -21255,7 +21255,7 @@
         <v>0</v>
       </c>
       <c r="E549" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F549" t="n">
         <v>0</v>
@@ -21264,7 +21264,7 @@
         <v>0</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -21293,13 +21293,13 @@
         <v>0</v>
       </c>
       <c r="E550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F550" t="n">
         <v>0</v>
       </c>
       <c r="G550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H550" t="n">
         <v>0</v>
@@ -21328,10 +21328,10 @@
         <v>0</v>
       </c>
       <c r="D551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F551" t="n">
         <v>0</v>
@@ -21369,7 +21369,7 @@
         <v>0</v>
       </c>
       <c r="E552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F552" t="n">
         <v>0</v>
@@ -21387,7 +21387,7 @@
         <v>0</v>
       </c>
       <c r="K552" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L552" t="n">
         <v>0</v>
@@ -21436,10 +21436,10 @@
         <v>44008.04166666666</v>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -21474,7 +21474,7 @@
         <v>44008.08333333334</v>
       </c>
       <c r="B555" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C555" t="n">
         <v>0</v>
@@ -21498,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K555" t="n">
         <v>0</v>
@@ -21524,13 +21524,13 @@
         <v>0</v>
       </c>
       <c r="F556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G556" t="n">
         <v>0</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I556" t="n">
         <v>0</v>
@@ -21591,7 +21591,7 @@
         <v>0</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D558" t="n">
         <v>0</v>
@@ -21600,7 +21600,7 @@
         <v>0</v>
       </c>
       <c r="F558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G558" t="n">
         <v>0</v>
@@ -21629,7 +21629,7 @@
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D559" t="n">
         <v>0</v>
@@ -21638,7 +21638,7 @@
         <v>0</v>
       </c>
       <c r="F559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G559" t="n">
         <v>0</v>
@@ -21667,7 +21667,7 @@
         <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D560" t="n">
         <v>0</v>
@@ -21676,7 +21676,7 @@
         <v>0</v>
       </c>
       <c r="F560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G560" t="n">
         <v>0</v>
@@ -21714,7 +21714,7 @@
         <v>0</v>
       </c>
       <c r="F561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G561" t="n">
         <v>0</v>
@@ -21729,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="K561" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L561" t="n">
         <v>0</v>
@@ -21743,7 +21743,7 @@
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D562" t="n">
         <v>0</v>
@@ -21767,7 +21767,7 @@
         <v>0</v>
       </c>
       <c r="K562" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L562" t="n">
         <v>0</v>
@@ -21781,7 +21781,7 @@
         <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D563" t="n">
         <v>0</v>
@@ -21805,7 +21805,7 @@
         <v>0</v>
       </c>
       <c r="K563" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L563" t="n">
         <v>0</v>
@@ -21825,10 +21825,10 @@
         <v>0</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G564" t="n">
         <v>0</v>
@@ -21866,7 +21866,7 @@
         <v>0</v>
       </c>
       <c r="F565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G565" t="n">
         <v>0</v>
@@ -21881,7 +21881,7 @@
         <v>0</v>
       </c>
       <c r="K565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L565" t="n">
         <v>0</v>
@@ -21939,13 +21939,13 @@
         <v>0</v>
       </c>
       <c r="E567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F567" t="n">
         <v>0</v>
       </c>
       <c r="G567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H567" t="n">
         <v>0</v>
@@ -21977,13 +21977,13 @@
         <v>0</v>
       </c>
       <c r="E568" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F568" t="n">
         <v>0</v>
       </c>
       <c r="G568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H568" t="n">
         <v>0</v>
@@ -22047,13 +22047,13 @@
         <v>0</v>
       </c>
       <c r="C570" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D570" t="n">
         <v>0</v>
       </c>
       <c r="E570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F570" t="n">
         <v>0</v>
@@ -22085,13 +22085,13 @@
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
       </c>
       <c r="E571" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F571" t="n">
         <v>0</v>
@@ -22141,13 +22141,13 @@
         <v>0</v>
       </c>
       <c r="I572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J572" t="n">
         <v>0</v>
       </c>
       <c r="K572" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>0</v>
@@ -22179,13 +22179,13 @@
         <v>0</v>
       </c>
       <c r="I573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J573" t="n">
         <v>0</v>
       </c>
       <c r="K573" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L573" t="n">
         <v>0</v>
@@ -22237,7 +22237,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D575" t="n">
         <v>0</v>
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="F577" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G577" t="n">
         <v>0</v>
@@ -22334,7 +22334,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K577" t="n">
         <v>0</v>
@@ -22360,13 +22360,13 @@
         <v>0</v>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G578" t="n">
         <v>0</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -22427,7 +22427,7 @@
         <v>0</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D580" t="n">
         <v>0</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="F580" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G580" t="n">
         <v>0</v>
@@ -22465,10 +22465,10 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D581" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E581" t="n">
         <v>0</v>
@@ -22550,7 +22550,7 @@
         <v>0</v>
       </c>
       <c r="F583" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G583" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="K583" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L583" t="n">
         <v>0</v>
@@ -22579,7 +22579,7 @@
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D584" t="n">
         <v>0</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="G584" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H584" t="n">
         <v>0</v>
@@ -22655,13 +22655,13 @@
         <v>0</v>
       </c>
       <c r="C586" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D586" t="n">
         <v>0</v>
       </c>
       <c r="E586" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F586" t="n">
         <v>0</v>
@@ -22705,13 +22705,13 @@
         <v>0</v>
       </c>
       <c r="G587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H587" t="n">
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J587" t="n">
         <v>0</v>
@@ -22775,13 +22775,13 @@
         <v>0</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F589" t="n">
         <v>0</v>
       </c>
       <c r="G589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H589" t="n">
         <v>0</v>
@@ -22813,13 +22813,13 @@
         <v>0</v>
       </c>
       <c r="E590" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F590" t="n">
         <v>0</v>
       </c>
       <c r="G590" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H590" t="n">
         <v>0</v>
@@ -22851,7 +22851,7 @@
         <v>0</v>
       </c>
       <c r="E591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F591" t="n">
         <v>0</v>
@@ -22863,7 +22863,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J591" t="n">
         <v>0</v>
@@ -22898,7 +22898,7 @@
         <v>0</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -22907,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="K592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>0</v>
@@ -22936,10 +22936,10 @@
         <v>0</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J593" t="n">
         <v>0</v>
@@ -22965,13 +22965,13 @@
         <v>0</v>
       </c>
       <c r="E594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F594" t="n">
         <v>0</v>
       </c>
       <c r="G594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H594" t="n">
         <v>0</v>
@@ -23009,13 +23009,13 @@
         <v>0</v>
       </c>
       <c r="G595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H595" t="n">
         <v>0</v>
       </c>
       <c r="I595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J595" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="E596" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F596" t="n">
         <v>0</v>
@@ -23053,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J596" t="n">
         <v>0</v>
@@ -23146,7 +23146,7 @@
         <v>44010.08333333334</v>
       </c>
       <c r="B599" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C599" t="n">
         <v>0</v>
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="J599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K599" t="n">
         <v>0</v>
@@ -23187,7 +23187,7 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D600" t="n">
         <v>0</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D602" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="G602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H602" t="n">
         <v>0</v>
@@ -23301,7 +23301,7 @@
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -23325,7 +23325,7 @@
         <v>0</v>
       </c>
       <c r="K603" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L603" t="n">
         <v>0</v>
@@ -23339,7 +23339,7 @@
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D604" t="n">
         <v>0</v>
@@ -23351,7 +23351,7 @@
         <v>0</v>
       </c>
       <c r="G604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H604" t="n">
         <v>0</v>
@@ -23389,7 +23389,7 @@
         <v>0</v>
       </c>
       <c r="G605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H605" t="n">
         <v>0</v>
@@ -23401,7 +23401,7 @@
         <v>0</v>
       </c>
       <c r="K605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L605" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="G606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H606" t="n">
         <v>0</v>
       </c>
       <c r="I606" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J606" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="G608" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H608" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="K608" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L608" t="n">
         <v>0</v>
@@ -23535,7 +23535,7 @@
         <v>0</v>
       </c>
       <c r="E609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F609" t="n">
         <v>0</v>
@@ -23553,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="K609" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L609" t="n">
         <v>0</v>
@@ -23579,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="G610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H610" t="n">
         <v>0</v>
       </c>
       <c r="I610" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J610" t="n">
         <v>0</v>
@@ -23725,7 +23725,7 @@
         <v>0</v>
       </c>
       <c r="E614" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F614" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I614" t="n">
         <v>0</v>
@@ -23763,7 +23763,7 @@
         <v>0</v>
       </c>
       <c r="E615" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F615" t="n">
         <v>0</v>
@@ -23781,7 +23781,7 @@
         <v>0</v>
       </c>
       <c r="K615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L615" t="n">
         <v>0</v>
@@ -23909,7 +23909,7 @@
         <v>0</v>
       </c>
       <c r="C619" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D619" t="n">
         <v>0</v>
@@ -23933,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="K619" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L619" t="n">
         <v>0</v>
@@ -23994,7 +23994,7 @@
         <v>0</v>
       </c>
       <c r="F621" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G621" t="n">
         <v>0</v>
@@ -24006,7 +24006,7 @@
         <v>0</v>
       </c>
       <c r="J621" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K621" t="n">
         <v>0</v>
@@ -24058,10 +24058,10 @@
         <v>44011.25</v>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -24146,13 +24146,13 @@
         <v>0</v>
       </c>
       <c r="F625" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G625" t="n">
         <v>0</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D626" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E626" t="n">
         <v>0</v>
@@ -24225,7 +24225,7 @@
         <v>0</v>
       </c>
       <c r="G627" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H627" t="n">
         <v>0</v>
@@ -24237,7 +24237,7 @@
         <v>0</v>
       </c>
       <c r="K627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L627" t="n">
         <v>0</v>
@@ -24260,10 +24260,10 @@
         <v>0</v>
       </c>
       <c r="F628" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G628" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H628" t="n">
         <v>0</v>
@@ -24289,7 +24289,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -24313,7 +24313,7 @@
         <v>0</v>
       </c>
       <c r="K629" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L629" t="n">
         <v>0</v>
@@ -24333,13 +24333,13 @@
         <v>0</v>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F630" t="n">
         <v>0</v>
       </c>
       <c r="G630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H630" t="n">
         <v>0</v>
@@ -24377,7 +24377,7 @@
         <v>0</v>
       </c>
       <c r="G631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H631" t="n">
         <v>0</v>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="K631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L631" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="F632" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G632" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="K632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L632" t="n">
         <v>0</v>
@@ -24447,13 +24447,13 @@
         <v>0</v>
       </c>
       <c r="E633" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F633" t="n">
         <v>0</v>
       </c>
       <c r="G633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H633" t="n">
         <v>0</v>
@@ -24485,13 +24485,13 @@
         <v>0</v>
       </c>
       <c r="E634" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F634" t="n">
         <v>0</v>
       </c>
       <c r="G634" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H634" t="n">
         <v>0</v>
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="E635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F635" t="n">
         <v>0</v>
@@ -24535,7 +24535,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J635" t="n">
         <v>0</v>
@@ -24561,7 +24561,7 @@
         <v>0</v>
       </c>
       <c r="E636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F636" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>0</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -24599,7 +24599,7 @@
         <v>0</v>
       </c>
       <c r="E637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F637" t="n">
         <v>0</v>
@@ -24608,7 +24608,7 @@
         <v>0</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I637" t="n">
         <v>0</v>
@@ -24637,10 +24637,10 @@
         <v>0</v>
       </c>
       <c r="E638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G638" t="n">
         <v>0</v>
@@ -24713,7 +24713,7 @@
         <v>0</v>
       </c>
       <c r="E640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F640" t="n">
         <v>0</v>
@@ -24731,7 +24731,7 @@
         <v>0</v>
       </c>
       <c r="K640" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L640" t="n">
         <v>0</v>
@@ -24783,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D642" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="J642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K642" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>0</v>
       </c>
       <c r="C643" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D643" t="n">
         <v>0</v>
@@ -24842,7 +24842,7 @@
         <v>0</v>
       </c>
       <c r="J643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K643" t="n">
         <v>0</v>
@@ -24874,13 +24874,13 @@
         <v>0</v>
       </c>
       <c r="H644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
       <c r="J644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K644" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>44012.25</v>
       </c>
       <c r="B645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="n">
         <v>0</v>
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="J645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K645" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D647" t="n">
         <v>0</v>
@@ -24988,7 +24988,7 @@
         <v>0</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
@@ -25011,7 +25011,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D648" t="n">
         <v>0</v>
@@ -25020,7 +25020,7 @@
         <v>0</v>
       </c>
       <c r="F648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G648" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="F649" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G649" t="n">
         <v>0</v>
@@ -25093,13 +25093,13 @@
         <v>0</v>
       </c>
       <c r="E650" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F650" t="n">
         <v>0</v>
       </c>
       <c r="G650" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H650" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="C651" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D651" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H651" t="n">
         <v>0</v>
@@ -25169,13 +25169,13 @@
         <v>0</v>
       </c>
       <c r="E652" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F652" t="n">
         <v>0</v>
       </c>
       <c r="G652" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H652" t="n">
         <v>0</v>
@@ -25213,7 +25213,7 @@
         <v>0</v>
       </c>
       <c r="G653" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H653" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="K653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L653" t="n">
         <v>0</v>
@@ -25248,10 +25248,10 @@
         <v>0</v>
       </c>
       <c r="F654" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G654" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H654" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>0</v>
       </c>
       <c r="I655" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J655" t="n">
         <v>0</v>
       </c>
       <c r="K655" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L655" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="E656" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F656" t="n">
         <v>0</v>
@@ -25333,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J656" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="E657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F657" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="I657" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J657" t="n">
         <v>0</v>
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E658" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F658" t="n">
         <v>0</v>
@@ -25406,7 +25406,7 @@
         <v>0</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I658" t="n">
         <v>0</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="E659" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F659" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I659" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="E662" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F662" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>0</v>
       </c>
       <c r="I662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J662" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>0</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I664" t="n">
         <v>0</v>
       </c>
       <c r="J664" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K664" t="n">
         <v>0</v>
